--- a/Documentation/TimeSheets/week7/Huy Nguyen Week 7 Timesheet .xlsx
+++ b/Documentation/TimeSheets/week7/Huy Nguyen Week 7 Timesheet .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Adelaide\2017-S2-SEP-PG29\Documentation\TimeSheets\week7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3. Adelaide - Source Code\2017-S2-SEP-PG29\Documentation\TimeSheets\week7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -79,9 +79,6 @@
     <t>Name: Xiaoshan Chen</t>
   </si>
   <si>
-    <t>Week 5 Time Sheet</t>
-  </si>
-  <si>
     <t>I.D : a1729507</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>12:30PM</t>
+  </si>
+  <si>
+    <t>Week 7 Time Sheet</t>
   </si>
 </sst>
 </file>
@@ -120,9 +120,9 @@
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-    <numFmt numFmtId="169" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +168,41 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -245,43 +280,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="9" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="4" fillId="0" borderId="0" xfId="5">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -678,22 +713,23 @@
   <dimension ref="B1:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="45.44140625" customWidth="1"/>
-    <col min="3" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="20.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="34.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -703,181 +739,181 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="10"/>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="2:8" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="3">
+      <c r="B5" s="8">
         <v>12</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="8">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
         <v>12.5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="8">
         <f>IFERROR(IF(C5&lt;=WorkweekHours,C5,WorkweekHours),"")</f>
         <v>12</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="8">
         <f>IFERROR(C5-D5, "")</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="12">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-#REF!+#REF!-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>16</v>
+      <c r="B8" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="13">
         <v>42983</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C9" s="13">
         <v>42985</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="D9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>21</v>
+      <c r="B10" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="13">
         <v>42987</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="D10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="12">
         <v>4.5</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>21</v>
+      <c r="B11" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="13">
         <v>42988</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="D11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="12">
         <v>4</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="4"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="5"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="4"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="G13" s="5"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="4"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="G14" s="5"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="4"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="21">

--- a/Documentation/TimeSheets/week7/Huy Nguyen Week 7 Timesheet .xlsx
+++ b/Documentation/TimeSheets/week7/Huy Nguyen Week 7 Timesheet .xlsx
@@ -76,9 +76,6 @@
     <t>04:00PM</t>
   </si>
   <si>
-    <t>Name: Xiaoshan Chen</t>
-  </si>
-  <si>
     <t>I.D : a1729507</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>Week 7 Time Sheet</t>
+  </si>
+  <si>
+    <t>Name: Huy Nguyen Phan</t>
   </si>
 </sst>
 </file>
@@ -276,7 +276,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -317,6 +317,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -713,7 +716,7 @@
   <dimension ref="B1:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -729,7 +732,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="34.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -739,11 +742,11 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -819,13 +822,13 @@
     </row>
     <row r="8" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="13">
         <v>42983</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>11</v>
@@ -836,16 +839,16 @@
     </row>
     <row r="9" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="13">
         <v>42985</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="12">
         <v>3</v>
@@ -853,16 +856,16 @@
     </row>
     <row r="10" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="13">
         <v>42987</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="12">
         <v>4.5</v>
@@ -870,16 +873,16 @@
     </row>
     <row r="11" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="13">
         <v>42988</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="12">
         <v>4</v>
